--- a/biology/Botanique/Mammillaria_herrerae/Mammillaria_herrerae.xlsx
+++ b/biology/Botanique/Mammillaria_herrerae/Mammillaria_herrerae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mammillaria herrerae est une espèce de cactus du genre Mammillaria dont l'épithète herrerae provient du biologiste et naturaliste mexicain Alfonso Herrera (1870-1942), fondateur du jardin zoologique de Chapultepec en 1923.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce petit cactus forme une boule ou un cylindre pouvant mesurer 3,5 cm de diamètre, avec des mamilles serrées jusqu'à une centaine d'épines blanches horizontales et fines de un à cinq millimètres de longueur, donnant un aspect blanc à la plante. Ses fleurs rose carmin mesurent un peu moins de trois centimètres de largeur et plus de deux centimètres de longueur. Ses fruits sont blanchâtres et ses graines brun foncé.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cactus est originaire de la région de San Luis Potosi et des environs de Queretaro. Il est en danger critique d'extinction dans son habitat naturel.
 </t>
@@ -573,7 +589,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Mammillaria herrerae nécessite beaucoup de soleil et aucune humidité durable. La variété Mamillaria herrerae var. albiflora Wedermann possède des fleurs blanches plus grosses.
 </t>
@@ -604,7 +622,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chilita herrerae (Werderm.) Buxb. (1954, nom. inval. ICBN-Article 33.3), Escobariopsis herrerae (Werderm.) Doweld (2000) et Mammillaria herrerai Fric (1924, nom. inval. ICBN-Article 32.1c).</t>
         </is>
@@ -634,7 +654,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(de) Wilhelm Barthlott, Kakteen, Stuttgart, Belser Verlag, 1977</t>
         </is>
